--- a/Intensity-data-template.xlsx
+++ b/Intensity-data-template.xlsx
@@ -112,12 +112,12 @@
         <v>796.1783439</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" ref="C2:C11" si="2">B2+randbetween(-1,1)*0.2*B2</f>
-        <v>796.1783439</v>
+        <f>B2+randbetween(-1,1)*0.4*B2</f>
+        <v>477.7070064</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D11" si="3">B2+randbetween(-1,1)*0.2*B2</f>
-        <v>796.1783439</v>
+        <f t="shared" ref="D2:D11" si="2">B2+randbetween(-1,1)*0.4*B2</f>
+        <v>1114.649682</v>
       </c>
     </row>
     <row r="3">
@@ -129,12 +129,12 @@
         <v>199.044586</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" si="2"/>
-        <v>238.8535032</v>
+        <f t="shared" ref="C3:C11" si="3">B3+randbetween(-1,1)*0.2*B3</f>
+        <v>159.2356688</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" si="3"/>
-        <v>238.8535032</v>
+        <f t="shared" si="2"/>
+        <v>119.4267516</v>
       </c>
     </row>
     <row r="4">
@@ -146,12 +146,12 @@
         <v>88.46426044</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" si="2"/>
-        <v>70.77140835</v>
+        <f t="shared" si="3"/>
+        <v>106.1571125</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="3"/>
-        <v>106.1571125</v>
+        <f t="shared" si="2"/>
+        <v>88.46426044</v>
       </c>
     </row>
     <row r="5">
@@ -163,12 +163,12 @@
         <v>49.7611465</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="2"/>
-        <v>59.7133758</v>
+        <f t="shared" si="3"/>
+        <v>49.7611465</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="3"/>
-        <v>39.8089172</v>
+        <f t="shared" si="2"/>
+        <v>49.7611465</v>
       </c>
     </row>
     <row r="6">
@@ -180,12 +180,12 @@
         <v>31.84713376</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31.84713376</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="3"/>
-        <v>38.21656051</v>
+        <f t="shared" si="2"/>
+        <v>19.10828025</v>
       </c>
     </row>
     <row r="7">
@@ -197,12 +197,12 @@
         <v>22.11606511</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22.11606511</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="3"/>
-        <v>22.11606511</v>
+        <f t="shared" si="2"/>
+        <v>30.96249115</v>
       </c>
     </row>
     <row r="8">
@@ -214,12 +214,12 @@
         <v>16.24853763</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="2"/>
-        <v>16.24853763</v>
+        <f t="shared" si="3"/>
+        <v>19.49824516</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="3"/>
-        <v>19.49824516</v>
+        <f t="shared" si="2"/>
+        <v>9.749122579</v>
       </c>
     </row>
     <row r="9">
@@ -231,12 +231,12 @@
         <v>12.44028662</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="2"/>
-        <v>9.952229299</v>
+        <f t="shared" si="3"/>
+        <v>14.92834395</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="3"/>
-        <v>12.44028662</v>
+        <f t="shared" si="2"/>
+        <v>7.464171975</v>
       </c>
     </row>
     <row r="10">
@@ -248,12 +248,12 @@
         <v>9.829362271</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="2"/>
-        <v>11.79523473</v>
+        <f t="shared" si="3"/>
+        <v>9.829362271</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="3"/>
-        <v>11.79523473</v>
+        <f t="shared" si="2"/>
+        <v>9.829362271</v>
       </c>
     </row>
     <row r="11">
@@ -265,12 +265,12 @@
         <v>7.961783439</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.961783439</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="3"/>
-        <v>9.554140127</v>
+        <f t="shared" si="2"/>
+        <v>11.14649682</v>
       </c>
     </row>
   </sheetData>
